--- a/comandos_nequi.xlsx
+++ b/comandos_nequi.xlsx
@@ -41,27 +41,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -70,12 +55,30 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -146,6 +149,21 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F74" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F74"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Usuario ID"/>
+    <tableColumn id="2" name="Nombre"/>
+    <tableColumn id="3" name="Número"/>
+    <tableColumn id="4" name="Cantidad"/>
+    <tableColumn id="5" name="Fecha"/>
+    <tableColumn id="6" name="Código aleatorio"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,795 +455,794 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="21.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="34.42578125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="21.5703125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="34.42578125" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="17.7109375" customWidth="1" style="2" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Usuario ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Número</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Código aleatorio</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="A2" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ANTHONY ROJAS</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>3127482182</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>15.000,00</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>20 de noviembre de 2024,  11:01 p. m.</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>M0169568</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="A3" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Hola mundo</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>322222</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>3.333,00</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>20 de noviembre de 2024,  11:04 p. m.</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>M1584877</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="A4" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>PITYGUA LOPEZ</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>3128539204</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>200.000,00</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  11:17 a. m.</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>M5930734</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>PITYGUA LOPEZ</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>3128539204</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$ 200.000,00</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  11:20 a. m.</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>M1274241</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="A6" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>PITYGUA LOPEZ</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>3128539204</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$ 200.000,00</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  11:21 a. m.</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>M2574220</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>PITYGUA LOPEZ</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>3128539204</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$ 200.000,00</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  11:22 a. m.</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>M8349078</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  05:19 p. m.</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>M2336980</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  09:33 p. m.</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>M8120626</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  09:34 p. m.</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>M7437305</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  09:41 p. m.</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>M6956332</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="A12" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  09:46 p. m.</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>M1604098</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="A13" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  09:54 p. m.</t>
         </is>
       </c>
-      <c r="F13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>6575216899</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>YOINER CANCHILA</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>3218156790</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$ 50.000,00</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  11:47 a. m.</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>M0249727</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>6575216899</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>SMART FIT</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>3145389267</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$ 30.000,00</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  04:09 p. m.</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>M6984757</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>6807778042</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>ROBERTO DE LOS REYES</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>3053906649</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>20.000,00</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>20 de noviembre de 2024,  10:20 p. m.</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>M9097026</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>6807778042</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>5,00</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>20 de noviembre de 2024,  10:27 p. m.</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>M0325138</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>6807778042</v>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>MATTER PLS</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>3123123123</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1.000.000,00</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>20 de noviembre de 2024,  11:09 p. m.</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>M4163542</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="A19" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  09:57 p. m.</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>M9630857</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="A20" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:01 p. m.</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>M2986111</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="A21" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:08 p. m.</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>M1137404</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="A22" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:09 p. m.</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>M3255231</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="A23" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:11 p. m.</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>M6382899</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="A24" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:16 p. m.</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>M5578117</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="A25" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>DOLLARCITY</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:20 p. m.</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>M8164796</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>6374048796</v>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="A26" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>hola</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>3222222</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$ 6.000,00</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>21 de noviembre de 2024,  10:22 p. m.</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>M6770239</t>
         </is>
@@ -2281,7 +2298,3280 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BERTA ARDILA ARGUELLO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3126503523</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  04:45 a. m.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>M5852129</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3222222</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  05:13 a. m.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>M4914373</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BERTA ARDILA ARGUELLO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3126503523</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  05:56 a. m.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>M8396147</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5208848005</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BAIRON MORALES</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3008723896</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  05:10 p. m.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>M6694824</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5208848005</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BAIRON MORALES</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3008723896</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  05:10 p. m.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>M6308938</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5208848005</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>STEVEN CALA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3008879230</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  05:10 p. m.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>M8010500</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BERTA ARDILA ARGUELLO</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3126503523</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  05:13 p. m.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>M2315619</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>JHONNY GABRIEL CALA ARDILA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3178333126</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  06:49 p. m.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>M1393969</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NICOLAS MADURO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3124563212</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>24 de noviembre de 2024,  10:11 p. m.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>M8393481</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  12:37 p. m.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>M3778981</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>$ 2.000.000,00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  12:46 p. m.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>M2852929</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  01:14 p. m.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>M9316599</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SU NOMBRE AQUÍ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3112112111</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  02:35 p. m.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>M5585285</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Saray</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3245431234</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  06:16 p. m.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>M0220643</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Saray</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3245431234</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  07:02 p. m.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>M9695790</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Saray</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3245431234</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  07:15 p. m.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>M2307752</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6864473714</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Harly Recargas</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3007514612</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>$ 25.000,00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  07:19 p. m.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>M9499162</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>JUAN MESINO</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3222222</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  08:43 p. m.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>M7142271</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  08:43 p. m.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>M8727210</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>URIBISTAS SOPLADORES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3222222</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>$ 50.000.000,00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  08:45 p. m.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>M9290077</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>IVAN DUQUE MARQUEZ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3124567890</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>$ 50.000.000,00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  08:47 p. m.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>M0148835</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024, 09:33 p.Â m.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>M3587747</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024, 09:36 p.Â m.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>M2534108</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  09:37 p. m.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>M3336349</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3126503523</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  10:57 p. m.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>M6406984</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3126503523</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:00 p. m.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>M0846207</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:15 p. m.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>M3878832</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:28 p. m.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>M9223128</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:32 p. m.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>M3961566</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:34 p. m.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>M5551470</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:38 p. m.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>M3666044</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25 de noviembre de 2024,  11:41 p. m.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>M7157697</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26 de noviembre de 2024,  12:21 a. m.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>M9686687</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>JUAN MESINO</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>322222</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26 de noviembre de 2024,  12:25 a. m.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>M9132556</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26 de noviembre de 2024,  02:30 a. m.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>M3871486</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3126503523</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>$ 500,00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>26 de noviembre de 2024,  02:31 a. m.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>M1970465</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MANUEL OSPINO</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3123123123</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>M1725334</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MANUEL OSPINO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3123123123</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>M9905499</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>40,000,000.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>M5344040</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>40,000,000.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>M3141733</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ANDRES PADILLA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3014754309</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>$ 40.000.000,00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>26 de noviembre de 2024,  04:08 a. m.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>M6749142</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Jhonnu</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26 de noviembre de 2024,  11:03 p. m.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>M8676443</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Jhonnu</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  04:25 a. m.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>M9598771</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Jhonnu</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  04:25 a. m.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>M5843464</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>50.000</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>27-11-2024 05:15:06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>M4869946</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  05:36 a. m.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>M5742426</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  05:38 a. m.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>M2816434</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  06:05 a. m.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>M2953641</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  06:08 a. m.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>M9062597</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  06:13 p. m.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>M2408486</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6575216899</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>JHONNY CALA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3222222</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  06:14 p. m.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>M5524511</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6575216899</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>JULIAN RUA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3148298623</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>$ 2.000,00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>27 de noviembre de 2024,  09:57 p. m.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>M5133853</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ELIAS VIDAL ALVAREZ</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3053031337</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>$ 5.000.000,00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>28 de noviembre de 2024,  01:53 a. m.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>M0813793</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ELIAS VIDAL ALVAREZ</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3053031337</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>$ 50.000.000,00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>28 de noviembre de 2024,  02:43 a. m.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>M8228758</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2008025747</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>maylen liseth</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3117354187</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>28 de noviembre de 2024,  11:20 a. m.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>M1304671</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>810900783</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Maria Velasco</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3005769370</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>$ 70.000,00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  12:35 a. m.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>M3940246</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Jhonny cala ardila</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  06:35 a. m.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>M7778926</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Me W Cafeteria</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>76969782525</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>$ 9.000,00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  08:05 a. m.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>M9086114</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>JAIDER RUDAS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3003705315</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>$ 200.000,00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  07:00 p. m.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>M6553293</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ILDA MARIA MENA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3135148640</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  07:04 p. m.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>M5975956</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>EVELIN ODETH PAYARES</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3005935537</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>$ 100.000,00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  07:05 p. m.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>M3664466</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>EVELIN ODETH PAYARES</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3005935537</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>$ 1.000.000,00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>29 de noviembre de 2024,  07:06 p. m.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>M5422963</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>STEVEN CALA PATIÑO</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>3008879230</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  01:28 p. m.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>M8066365</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>STEVEN CALA PATIÑO</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3008879230</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>$ 10.000.000,00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  01:30 p. m.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>M7123247</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>STEVEN CALA PATIÑO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3008879230</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>$ 80.000.000,00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  01:31 p. m.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>M8246634</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>JAIDER RUDAS</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3003705315</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>$ 200.000.000,00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  01:32 p. m.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>M3903541</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CARLOS LAFAURIE CERVANTES</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3043106119</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>$ 40.000,00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  04:24 p. m.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>M4839000</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ANDRE CALA PATIÑO</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3002580497</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>$ 67,00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  09:56 p. m.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>M4451802</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ANDREA CALA PATIÑO</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3002580497</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>$ 67,00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  09:56 p. m.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>M6675289</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ANDREA CALA PATIÑO</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>3002580497</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>$ 40.000,00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  09:56 p. m.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>M9776301</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PA LOS RATEROS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3008879230</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>$ 50.000.000,00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  11:14 p. m.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>M4520282</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ROBERTO DE LOS REYES</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3053906649</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>$ 70.000,00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>30 de noviembre de 2024,  11:15 p. m.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>M6476445</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EMILY URDANETA ALVAREZ</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3013115594</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>$ 4.400,00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>02 de diciembre de 2024,  06:09 p. m.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>M1695610</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MANUEL ESTEBAN OSPINO</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3128539204</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>$ 80.000.000,00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>02 de diciembre de 2024,  06:11 p. m.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>M6282919</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MANUEL ESTEBAN OSPINO</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3128539204</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>$ 10.000,00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>02 de diciembre de 2024,  06:13 p. m.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>M0640824</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LUIS MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3002935558</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>$ 4.000.000,00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>03 de diciembre de 2024,  10:16 p. m.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>M4963569</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>LUIS MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3002935558</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>$ 9.000.000,00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>03 de diciembre de 2024,  10:20 p. m.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>M0485959</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Pal Marica que quiere un chaleco bomba</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3222222</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>$ 50.000.000,00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>03 de diciembre de 2024,  10:24 p. m.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>M1206198</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ANDRES COSSIO CUCA CHAR DIAZ MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3222222222</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>03 de diciembre de 2024,  10:37 p. m.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>M1718752</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>793972172</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Rchicqada MARTINEZ</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3222222222</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>03 de diciembre de 2024,  10:37 p. m.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>M9445468</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>JHONNY CALA ARDILA</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3054039480</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>$ 7.718.000,00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>04 de diciembre de 2024,  11:09 a. m.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>M0911016</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>JHONNY CALA ARDILA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3054039480</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>$ 7.718.000,00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>04 de diciembre de 2024,  11:15 a. m.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>M1447939</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>JHONNY CALA ARDILA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3054039480</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>$ 7.718.000,00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>04 de diciembre de 2024,  11:15 a. m.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>M9608367</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ANDRÉS COSSIO CHAR DÍAZ MAESTRA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3003382175</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>$ 2.000.000,00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>04 de diciembre de 2024,  12:46 p. m.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>M3627215</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ELDER DICKSON</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3102452921</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>$ 2.000.000,00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>04 de diciembre de 2024,  04:01 p. m.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>M7795787</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>793972172</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SIGFRIDO CHARRIS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3002379344</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>$ 1.000.000,00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>05 de diciembre de 2024,  01:56 a. m.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>M9100189</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>793972172</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MICHAEL AMAYA</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3164887118</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>$ 80.000,00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>05 de diciembre de 2024,  02:01 a. m.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>M4292227</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>IVAN OFICIAL</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3154734919</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>$ 200.000,00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>05 de diciembre de 2024,  03:57 p. m.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>M3149103</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>NORIS ISABEL PEREZ</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3014509541</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>$ 20.000,00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>05 de diciembre de 2024,  10:05 p. m.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>M4178506</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>793972172</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ALEJANDRO URREGO 302</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3412773</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>05 de diciembre de 2024,  10:42 p. m.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>M0045749</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>793972172</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ALEJANDRO URREGO</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3023412773</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>$ 50.000,00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>05 de diciembre de 2024,  10:42 p. m.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>M8894012</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>6807778042</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>HOLA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>322222</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>$ 80.000.000,00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>06 de diciembre de 2024,  06:58 p. m.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>M3275218</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>DIANA DELGADO</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3215759766</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>$ 19.000,00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  02:08 p. m.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>M5440312</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>JUAN BOLIVAR</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3154734235</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>$ 19.000,00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  03:39 p. m.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>M2023636</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Yhoan Camilo ágil Giraldo</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3105990542</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>$ 22.000,00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  04:29 p. m.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>M5225353</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1905973890</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>zadith martinez</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>31540688121</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>$ 350.000,00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  07:14 p. m.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>M8741278</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Andrés Cosio Cuca Char Díaz Martínez Osorio Pérez Ospino</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3003382175</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  10:50 p. m.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>M7119068</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Andrés Cosio Cuca Char Díaz Ospino</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3003382175</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  10:51 p. m.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>M0070760</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Andres Cosio Cuca Char Díaz Ospino</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>3003382175</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>$ 500.000,00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  10:51 p. m.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>M5114275</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>manuel esteban ospino</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>3128539204</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>$ 300.000.000,00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>08 de diciembre de 2024,  10:59 p. m.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>M4955482</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Sandra Patricia Navas Morales</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3042929897</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>$ 4.000,00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>09 de diciembre de 2024,  09:07 a. m.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>M4175958</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SANDRA PATRICIA NAVAS MORALES</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3042929897</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>$ 7.000,00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>09 de diciembre de 2024,  04:01 p. m.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>M2208587</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>YARIMA ISABEL VIVANCO RUIDIAZ</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3207320664</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>$ 26.000,00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>09 de diciembre de 2024,  08:20 p. m.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>M2996313</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SANDRA PATRICIA NAVAS MORALES</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3042929897</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>$ 7.500,00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>10 de diciembre de 2024,  03:14 p. m.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>M0558348</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sandra Patricia navas morales</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>3042929897</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>$ 10.000,00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>10 de diciembre de 2024,  03:14 p. m.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>M7925584</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SANDRA PATRICIA NAVAS MORALES</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3042929897</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>$ 15.000,00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>10 de diciembre de 2024,  03:48 p. m.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>M6405617</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>929375659</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SANDRA PATRICIA NAVAS MORALES</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3042929897</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>$ 6.900,00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>10 de diciembre de 2024,  07:03 p. m.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>M6283068</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Valentina consuegra</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>3004192048</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>$ 20.000.000,00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>10 de diciembre de 2024,  08:34 p. m.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>M4482291</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6374048796</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Nicolle Florez</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>3152426542</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>$ 4.500,00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>10 de diciembre de 2024,  10:23 p. m.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>M0950557</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>